--- a/MatchTA_Server/temp_file1.xlsx
+++ b/MatchTA_Server/temp_file1.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Senior Classes/Working Project/capstone_server/Capstone_Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_7C39ABFFF30F9C464A3C34905030634A5738539B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257A0F9E-3510-40D3-823D-DA4227720B8E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_DA08971E493005EB37367688E5BCDFCCB6D46962" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9482C29E-A4DF-472D-8A0A-5F86D6E4393E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Spring-2025-TA-Graders-PhD_Mast" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>Headcount</t>
   </si>
@@ -40,6 +53,9 @@
     <t xml:space="preserve">List the courses that you want to be a TA in the order from highest preference to lowest. For each course you listed, you must have taken it before and include your grade. Example of format: 5383(A), 6345(B). </t>
   </si>
   <si>
+    <t>Ph.D. Student</t>
+  </si>
+  <si>
     <t>Amir Faiyaz (DGSA)</t>
   </si>
   <si>
@@ -334,6 +350,9 @@
     <t>Yuanlin Zhang</t>
   </si>
   <si>
+    <t>M.S. Student</t>
+  </si>
+  <si>
     <t>Sasi Kiran Boyapati</t>
   </si>
   <si>
@@ -356,33 +375,22 @@
   </si>
   <si>
     <t>Rohit Viswakarma Pidishetti</t>
+  </si>
+  <si>
+    <t>total TA hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -402,16 +410,27 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,55 +440,72 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +523,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,28 +538,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -528,7 +568,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -600,7 +640,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,7 +661,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -632,31 +671,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -678,7 +717,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -736,7 +775,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -749,13 +788,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -774,703 +812,846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="189.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="179.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="189.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G6" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G7" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="G8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
         <v>0.5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="G10" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="G11" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
         <v>0.5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="G13" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="G14" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="9">
         <v>2023</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="G15" s="7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="G16" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="G17" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G18" s="7" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="G20" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="G21" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="G22" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="G23" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
       </c>
       <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
         <v>0.5</v>
       </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
       <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>1</v>
-      </c>
-      <c r="B26" s="9">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
         <v>0.5</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
       </c>
       <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
         <v>0.5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E27" t="s">
         <v>96</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E28" t="s">
         <v>98</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E29" t="s">
         <v>100</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
       </c>
       <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
         <v>0.5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E31" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <f>SUM(B2:B39)</f>
+        <v>38</v>
+      </c>
+      <c r="C41" s="4">
+        <f>SUM(C2:C39)</f>
+        <v>33.5</v>
+      </c>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="3">
+        <f>C41*20</f>
+        <v>670</v>
+      </c>
+      <c r="F42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
